--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,13 +66,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
+++ b/fhir/ValueSet-HarrisHipScoreSmerter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
